--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pdcd1lg2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Pdcd1lg2</t>
+  </si>
+  <si>
+    <t>Rgmb</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pdcd1lg2</t>
-  </si>
-  <si>
-    <t>Rgmb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H2">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I2">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.55301866666667</v>
+        <v>6.041227666666667</v>
       </c>
       <c r="N2">
-        <v>37.659056</v>
+        <v>18.123683</v>
       </c>
       <c r="O2">
-        <v>0.2692278546031339</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="P2">
-        <v>0.3068924341132448</v>
+        <v>0.201743010396314</v>
       </c>
       <c r="Q2">
-        <v>3.310427686359111</v>
+        <v>2.717253586051667</v>
       </c>
       <c r="R2">
-        <v>29.793849177232</v>
+        <v>24.455282274465</v>
       </c>
       <c r="S2">
-        <v>0.1217838921238576</v>
+        <v>0.1819046328309099</v>
       </c>
       <c r="T2">
-        <v>0.1388212788931848</v>
+        <v>0.201743010396314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H3">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I3">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.063475</v>
       </c>
       <c r="O3">
-        <v>0.200628214551068</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="P3">
-        <v>0.2286958056629511</v>
+        <v>0.3123873844340412</v>
       </c>
       <c r="Q3">
-        <v>2.466926006202778</v>
+        <v>4.207510034291666</v>
       </c>
       <c r="R3">
-        <v>22.202334055825</v>
+        <v>37.867590308625</v>
       </c>
       <c r="S3">
-        <v>0.09075318329860879</v>
+        <v>0.2816688040634135</v>
       </c>
       <c r="T3">
-        <v>0.1034494197009856</v>
+        <v>0.3123873844340412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H4">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I4">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.616516333333333</v>
+        <v>5.096198666666667</v>
       </c>
       <c r="N4">
-        <v>13.849549</v>
+        <v>15.288596</v>
       </c>
       <c r="O4">
-        <v>0.09901162590190733</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="P4">
-        <v>0.1128632062359889</v>
+        <v>0.1701843594247949</v>
       </c>
       <c r="Q4">
-        <v>1.217447682522556</v>
+        <v>2.292193717286667</v>
       </c>
       <c r="R4">
-        <v>10.957029142703</v>
+        <v>20.62974345558001</v>
       </c>
       <c r="S4">
-        <v>0.04478742062414096</v>
+        <v>0.1534492984610312</v>
       </c>
       <c r="T4">
-        <v>0.05105311466845661</v>
+        <v>0.1701843594247949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H5">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I5">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.167078</v>
+        <v>9.797388999999999</v>
       </c>
       <c r="N5">
-        <v>34.334156</v>
+        <v>19.594778</v>
       </c>
       <c r="O5">
-        <v>0.3681867845873241</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="P5">
-        <v>0.2797970482336007</v>
+        <v>0.2181184421382489</v>
       </c>
       <c r="Q5">
-        <v>4.527227419488667</v>
+        <v>4.406718611365</v>
       </c>
       <c r="R5">
-        <v>27.163364516932</v>
+        <v>26.44031166819</v>
       </c>
       <c r="S5">
-        <v>0.1665474760095299</v>
+        <v>0.2950046823396649</v>
       </c>
       <c r="T5">
-        <v>0.1265648147324276</v>
+        <v>0.2181184421382489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,356 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2637156666666667</v>
+        <v>0.449785</v>
       </c>
       <c r="H6">
-        <v>0.791147</v>
+        <v>1.349355</v>
       </c>
       <c r="I6">
-        <v>0.4523450677248013</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4523450677248012</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.934898</v>
+        <v>2.921654</v>
       </c>
       <c r="N6">
-        <v>8.804694</v>
+        <v>8.764962000000001</v>
       </c>
       <c r="O6">
-        <v>0.06294552035656671</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="P6">
-        <v>0.07175150575421439</v>
+        <v>0.09756680360660122</v>
       </c>
       <c r="Q6">
-        <v>0.7739785826686667</v>
+        <v>1.31411614439</v>
       </c>
       <c r="R6">
-        <v>6.965807244018</v>
+        <v>11.82704529951</v>
       </c>
       <c r="S6">
-        <v>0.02847309566866403</v>
+        <v>0.08797258230498059</v>
       </c>
       <c r="T6">
-        <v>0.03245643972974657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.319281</v>
-      </c>
-      <c r="H7">
-        <v>0.957843</v>
-      </c>
-      <c r="I7">
-        <v>0.5476549322751989</v>
-      </c>
-      <c r="J7">
-        <v>0.5476549322751988</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.55301866666667</v>
-      </c>
-      <c r="N7">
-        <v>37.659056</v>
-      </c>
-      <c r="O7">
-        <v>0.2692278546031339</v>
-      </c>
-      <c r="P7">
-        <v>0.3068924341132448</v>
-      </c>
-      <c r="Q7">
-        <v>4.007940352912</v>
-      </c>
-      <c r="R7">
-        <v>36.071463176208</v>
-      </c>
-      <c r="S7">
-        <v>0.1474439624792764</v>
-      </c>
-      <c r="T7">
-        <v>0.16807115522006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.319281</v>
-      </c>
-      <c r="H8">
-        <v>0.957843</v>
-      </c>
-      <c r="I8">
-        <v>0.5476549322751989</v>
-      </c>
-      <c r="J8">
-        <v>0.5476549322751988</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.354491666666666</v>
-      </c>
-      <c r="N8">
-        <v>28.063475</v>
-      </c>
-      <c r="O8">
-        <v>0.200628214551068</v>
-      </c>
-      <c r="P8">
-        <v>0.2286958056629511</v>
-      </c>
-      <c r="Q8">
-        <v>2.986711453824999</v>
-      </c>
-      <c r="R8">
-        <v>26.880403084425</v>
-      </c>
-      <c r="S8">
-        <v>0.1098750312524592</v>
-      </c>
-      <c r="T8">
-        <v>0.1252463859619655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.319281</v>
-      </c>
-      <c r="H9">
-        <v>0.957843</v>
-      </c>
-      <c r="I9">
-        <v>0.5476549322751989</v>
-      </c>
-      <c r="J9">
-        <v>0.5476549322751988</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.616516333333333</v>
-      </c>
-      <c r="N9">
-        <v>13.849549</v>
-      </c>
-      <c r="O9">
-        <v>0.09901162590190733</v>
-      </c>
-      <c r="P9">
-        <v>0.1128632062359889</v>
-      </c>
-      <c r="Q9">
-        <v>1.473965951423</v>
-      </c>
-      <c r="R9">
-        <v>13.265693562807</v>
-      </c>
-      <c r="S9">
-        <v>0.05422420527776639</v>
-      </c>
-      <c r="T9">
-        <v>0.0618100915675323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.319281</v>
-      </c>
-      <c r="H10">
-        <v>0.957843</v>
-      </c>
-      <c r="I10">
-        <v>0.5476549322751989</v>
-      </c>
-      <c r="J10">
-        <v>0.5476549322751988</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>17.167078</v>
-      </c>
-      <c r="N10">
-        <v>34.334156</v>
-      </c>
-      <c r="O10">
-        <v>0.3681867845873241</v>
-      </c>
-      <c r="P10">
-        <v>0.2797970482336007</v>
-      </c>
-      <c r="Q10">
-        <v>5.481121830918</v>
-      </c>
-      <c r="R10">
-        <v>32.886730985508</v>
-      </c>
-      <c r="S10">
-        <v>0.2016393085777942</v>
-      </c>
-      <c r="T10">
-        <v>0.1532322335011731</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.319281</v>
-      </c>
-      <c r="H11">
-        <v>0.957843</v>
-      </c>
-      <c r="I11">
-        <v>0.5476549322751989</v>
-      </c>
-      <c r="J11">
-        <v>0.5476549322751988</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.934898</v>
-      </c>
-      <c r="N11">
-        <v>8.804694</v>
-      </c>
-      <c r="O11">
-        <v>0.06294552035656671</v>
-      </c>
-      <c r="P11">
-        <v>0.07175150575421439</v>
-      </c>
-      <c r="Q11">
-        <v>0.9370571683379999</v>
-      </c>
-      <c r="R11">
-        <v>8.433514515041999</v>
-      </c>
-      <c r="S11">
-        <v>0.03447242468790269</v>
-      </c>
-      <c r="T11">
-        <v>0.03929506602446782</v>
+        <v>0.09756680360660122</v>
       </c>
     </row>
   </sheetData>
